--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/19_Bolu_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/19_Bolu_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C148C45-4104-46E1-92ED-800BDD376B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E9C115-C28D-44B7-8EB8-00F17F145452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="692" xr2:uid="{7CA44F45-F608-4B3D-8019-59678399F698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{59E7E6D7-353A-40B0-8E8F-3496C4D68EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4945A768-5549-46A1-9911-F777640B05D5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2A80E5CC-712D-4CD6-AD99-B65772B83E79}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7694EFDA-2672-48DD-89FA-9933240779A4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{30992FD6-98A9-48CE-95DB-6CA13D887CA8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BA1D1677-BC6F-4E75-AB48-F6A930764916}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C391AD4F-16B9-4BFE-9F29-5F9A2E361CBA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2D52B6C5-0837-4242-AF6F-0E18AC2393B4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{39CE1D5B-7092-4440-B8A8-7C5DF93B05F1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C3A863D4-0E34-4D02-A755-05D3C27165E3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{12ED60B8-FD35-472F-8CC1-123903A90BEE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E7969837-276E-4CF0-9EFB-1A88667D94FD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BE2D3A54-EA9A-481D-8024-200B745BA5F0}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0C25C60C-FADA-4ECD-BAE1-019E9CCC931E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7C156D65-A712-48DC-B478-E1D4E7BFC939}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3BBFC3-ACEC-4A50-803B-E1A12B1FE952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7AC87E-1BBB-45D4-A2A3-B90B3D959CB5}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2622,17 +2622,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72EF6220-86E1-4A62-9844-67771D0B1E34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF490229-E2EF-482B-94A5-07FDBB9DF146}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68462C8E-0F31-454D-8361-EFCEB25FF27B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CBBD4E0-500A-49F8-831D-4A5EECAAB954}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{633593C6-994D-44E0-A47B-E8B4705E7AEC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52907825-DC2E-44D0-9A80-0A0AADCB0AA4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{182F36F9-DA2C-49F6-BAA5-7D67A39D26A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85460C06-6D4F-41A1-96F5-B4DEEA0D51E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ABCC01A3-D131-4FF1-809A-6BEC5EAB6ECE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6AE4E3F7-23EB-4841-9826-DE58435D48EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54E4F7DE-E96E-44DC-B1E5-1BD09006A0F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5438113-AC42-4969-A7CF-D95D614C8D3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92C1235C-DF86-4588-B2ED-C0DCED92825D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A2AE170-BDD2-422C-9A31-BB139F6104CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1EB3379E-6DE6-42EF-AD7F-C06C9D4047D6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{976C4C55-79E3-4FD0-9129-82446E2F1343}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6BB3048-5806-4B02-80BC-2AD11695E102}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{441F424A-3D9F-4F8C-AD87-9C0895F6B114}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEBBD441-A2A6-4EBC-A4F3-C66D512AF5FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD0A9B58-EC49-426B-BDAF-DA8F8D6630C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{13B0D9C8-A9D4-4D0C-A3A4-3FF8F8857336}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59469AD6-7A6B-42E4-9621-D6656E88A447}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2645,7 +2645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344BA023-935C-41D2-A40E-BFD03B145518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A442AC-C84A-4E8D-B4B8-C23BECDB8287}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3905,17 +3905,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AF429F9-4BA1-4F59-9795-3FFF5A9881DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E76214D2-B9D0-43EF-BF9B-E30BCC36E021}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B96E07F-FA24-463C-B444-754397158FB4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{658A566C-C031-472F-8EDF-3E9F86479A6D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0345E642-03A9-49E0-A3F7-22135615FAAD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06423AD7-EBED-46E1-994C-961799427103}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{322CF006-FEC8-4BCE-B993-AADB8F73AA80}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{356B3075-0C46-44BE-96B5-009C0828E433}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7B3BE073-0017-4C09-98F5-3797F068EE3B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B0E19040-9DB3-4341-B984-9A9F3048C8D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB8115C0-AF50-44B4-9048-F6E8F7A23194}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89F79F74-E63F-4788-B750-4F5A0BC155ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD288788-602B-4D9B-8BFF-287473B4CC0A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6551E648-C188-488E-BF9E-ADA1E1886B94}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{302AF754-17DF-4C74-9875-11C586A44C9C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6950693D-EA37-4742-BD5F-6156F1EE3501}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C2E2613-F8F0-47D1-AA6A-954E60365350}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9442C7F-D211-4CF2-B07C-4E87BCC30BA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC968BA1-F111-4AC1-8924-3D229BB9DABA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B9255BBB-9800-4732-B03E-EA712E674485}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF3EB55B-0CFC-42DF-805D-78D71B3D0053}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11E0FB5F-4D63-4951-B75D-DC2967E62E03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3928,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAC165A-0DD7-47D2-ACEA-89ABEADBD86A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A66CD4-F149-4961-8916-F0DE78D131A7}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5186,17 +5186,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D44998BE-2E2A-473F-AB7C-D462F2930A61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{027AC8F2-1373-4A03-BD81-A53072CF5500}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF416250-0E31-4629-90AF-62B02E247761}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0D6F4B6-3120-4F47-B39A-DB6E2E26A215}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AA0694A-9E94-4237-880D-78B167BD5D28}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79A1A465-95D8-48A2-BAA6-8CD390F8C87E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E0C9F2E-A6B5-4C77-B75D-E4544FFA30E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA87C50C-B78D-460F-94BE-2B2958A922DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DA96F6A9-61E3-414F-A74B-5001BC2611CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{360F03C2-7D99-44AB-8A84-2C429A1EA542}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2EB48C1-AE4A-49ED-BE3B-1EB23DBDC824}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F473846-8FD5-4738-A47A-48398E140FFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B2391DE-66D4-4FB6-926B-62D872114392}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17220434-8D94-4C39-AFC0-5DD619A1A5BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{589D207F-248F-425A-AB6D-2644DEADA319}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67B9CD65-AF12-4713-ABF7-8F2EBED5CCA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{438DED34-D860-4472-A6BF-A40BF249B582}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2459FF6A-E780-417C-AAC6-1D57E424F8D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EB8BF8A-758D-48C2-97AF-CC59FB475D98}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C25C2F1E-B5EE-453D-8FB1-14F7A2266DE4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{81941AD4-567F-407B-9946-10937BE4B653}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF2B6D9F-08C2-448E-BA2C-A7D73950976F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5209,7 +5209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110E403-A4FC-4895-8EF8-9C8B7BBA4C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9863BA01-3EBB-4442-97A5-5405B7C02DD6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6463,17 +6463,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A2221D2-EF50-49F4-AF61-BB9A35E71704}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A415B34A-A454-4176-8892-E17903968C1E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4437E8CC-36C1-4632-9211-4244BE8ED0F0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A412E65-3595-4F6D-840D-59AE955908D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{137DE8CB-42C6-4C7A-987E-CD437CEF2606}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59F44F83-A92D-4A61-9153-3299FBAE445C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06F4E90A-81F0-4886-8EA1-0565B68A1A35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E360FFD-827C-4350-81CB-8C8F8AF1B765}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{126520A9-9550-4143-8BC3-EB3EFDE4D9F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1D03962-A611-4BFA-9147-53200DCF045A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0140D983-AF89-48C8-AC90-C0B6D21ADF85}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5796C34F-A3DA-4427-9526-946B5BA27782}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B3B1FD9-3AC8-458D-8A48-00A715FEC455}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{297E8991-5ACA-4436-A26E-569922024871}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{958DAA99-BA51-4DE5-B6D7-BAE066E0C176}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C18F499-017A-4633-A430-9BDAF93C4282}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0A1D50C-CBC8-4BC2-BD81-D360C1D9AC82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{202FD8F2-1C2C-4071-A0A6-8537BCC23B42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0DE69A9-1407-4F1B-A570-4C95FF183CEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7EFAD28E-8E58-482D-A300-93A81EE38802}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A771F6F0-6025-4E72-84C5-B930B65492AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D4151C5-ECFA-4A89-95D1-AC4B624BF79D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6486,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745D261-ACDB-4323-B4F7-381B84EE94B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F2C8D0-9674-4CDA-AF82-09D3F035645F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7755,17 +7755,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{255713DE-5F89-4636-B3C4-6B8A3CEE09E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9385BCFD-6ED2-4033-8DF0-BAFDCE3A4F60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79CB14E1-F539-415E-99F8-533CA7EA4BCB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF3E9CF5-A9FA-4D96-8FE6-380B30870DBB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD13B89C-52FB-437A-8A47-7E8713470D74}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F720F6E5-D6F5-433C-9A51-5069BA43B4F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86FCA34F-F902-470D-A3FA-899A0AD6E945}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{931A2C35-0504-4D5C-AB1A-23D6FE373310}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3388E45B-DE26-4E27-8DE8-74AC7D8CCB45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5FA0B6EE-A61B-4B1F-8FEB-250125B6E5C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EE5E0DF-8EEF-40E8-8B35-1656160BD7E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8018C09-BD82-474A-99B0-9E8E0E6A756B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D33DFCC-F031-4921-84F6-27BFA670D9E6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD2D8F34-2D5C-4DBC-A036-4C903F90EB8E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1499FAEB-161D-425A-AE28-0CC6FB7B0468}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A09AA11D-AB20-4363-B86B-A57706E93460}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA68B38A-89B9-4289-AECC-8EC210351B65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3D35A0E-B7D0-4BAB-9E47-85D18A5DCD0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76E4DB98-5B76-4F4C-8290-5A53FB0B23DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6B2572A5-B151-4AE9-AD2E-D756E8347A10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{64AF5DC7-C9AA-4B1E-872D-3E633500416F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E274FD08-EED7-4450-ACC7-5F0C71DFB354}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7778,7 +7778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1451CD44-DDB1-4803-BABF-8D0E2116B652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F11DACF-5BBB-4E1F-BB8C-7B5C47E3646B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9047,17 +9047,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6343BD33-AF2F-4933-A11E-8EB808AE119A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50F90E57-7AC3-4510-BD4F-7D9E4450E7F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{602FF4E6-473F-486B-B1E3-854F629756AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3C292BD-7673-43A7-B572-E47F8C6F23C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E028008-1FB2-45A5-AEE3-8C39A334C450}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B030B112-CB77-4958-8DD2-BDFF00FB9396}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C36FED3-DCEC-45E5-BBB0-920882555DCE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1497D02-A5D7-407A-8002-BB7888132681}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E65C0AE2-A184-47D7-82C1-3405F0C3BC79}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1C6625EF-FDB4-4860-B6F5-2C3EAEB23831}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F195053-757C-48C0-8A35-5F52043DECFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B0EE9EB-6390-4D18-9FC2-36AE810AD723}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A8E7E5B-CA89-4A88-BD7A-C711B7E33B3A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48CB88F2-D6A2-443C-8FB5-CF0BB57C3CBB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EFC440E-31D5-46CD-9556-42843AC8C08B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C38382D5-F3A4-4505-A0B7-978C79F574E3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01B185F0-C86A-4467-AE55-9B1ACAEA30BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73654975-CBE5-4B37-95A0-59066E452FEB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88193E8D-965F-4A2E-80F8-8D1E5D5D4FD0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B04B66FC-B1A2-4B13-832A-CAF0B29D1B18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B82E4B6A-E795-4514-BEFB-D3CB8D1F2B2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48580DDE-2037-4D62-BC65-A855F464CC9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9070,7 +9070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A2471A-5D7A-4A46-8479-E637FD41705F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B4E54-044B-4BEE-887F-1B96C14B512F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10339,17 +10339,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55FA17A9-EA03-47DD-9B42-9D150D485BD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{093A28D9-5E59-4A1E-BCB8-BC67987A73BA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE7D1137-A524-47F3-B8D3-130E25387876}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BA00874-C693-461C-A868-14985DF42571}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A21735BC-5A1B-4DC6-8879-92A674AE1D95}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{506B7758-FB6C-4902-A0B7-8857AC97314D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AA3A344-A2EB-4EA9-9EBE-2936347868F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FB11089-36B9-4A62-8A9C-D88D0905561A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{107A17AE-5EC6-4E76-B25E-E001019A73F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A3BBAC86-1340-4F5B-B855-D0B4365BDC76}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF99BA64-F19E-4816-8858-3C2282A84A5E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E52BEBF-D4F0-46FC-A83E-0DCF0A891B61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E35FDFD0-BA74-48D8-ABB8-DFEED50D0544}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{08EAC20D-530C-4F50-988C-06CEFBE7087F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48301BF7-426D-44F2-ABE0-C6560037805C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C360741B-9AAE-482A-8074-CCC0DEE39115}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9603D7BA-76EE-4463-9FEA-E9F866465C03}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FF6A2B7-68E3-4E61-A4BF-CB51CEEBFF4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2E700E9-4CF9-4C4A-8B59-336895CEDBD8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{87DA6093-FC1E-4BA7-BF6B-1C1B876F260C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{70A195F7-4575-4D75-809A-DA2EA4C89FE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADD24899-9A73-4CFD-A2F5-55284D2D875D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10362,7 +10362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C44AB2-D64E-46AF-A9CD-D857D0FFE780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3194B2-288D-4078-927B-F7FF26815CEE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11631,17 +11631,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1BF2994-094B-4A2F-8F8F-0C0DB6B17AE4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C50AFF5-771F-4098-9E3B-4EBCD7AFFB26}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8669635F-3CD9-4A3C-8DA8-60FF9B91B010}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E043B0A-B164-4B56-A0D8-699D47042137}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31CA1F57-A92D-46E6-A7D2-B0A43B0C03C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4455B329-8649-4570-B31C-D6FCE4810734}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2B34182-74AB-4C7D-A50B-CF052F7290EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6373F920-42D8-42E3-9AF8-C00B8576092C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EBADC394-5F3B-48B8-831B-9840A4B3E7FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9FBF8DC1-4D6F-4BE3-ADE7-B6337AAD2585}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{137C31C7-14E6-4AA8-88E2-3A93EA21730B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C43EF89-7A8A-4787-A464-4847ED0975C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2535B2BD-503D-4FED-AB73-918FC5190E5D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EAC5F478-9B2B-44A8-89A9-4DE59263F5E2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A042DCF-00C9-4E5F-9FC3-43C0AE914A97}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5F87D26-0C73-4477-B237-CD36292F76EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D6F6C9E-258F-4B12-BB28-572B8F3BCF0B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{464D4607-C95F-4344-A78D-D45DA9B17F4C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29D84E39-15F2-48AA-9452-8598E7BF6527}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{49D814E3-1653-4DB1-8D82-972E670DF22B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1C2AD362-E1C2-453E-95F8-93F7443F39E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2101BCE7-5820-4C65-AA3B-DC53CC24CB0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11654,7 +11654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8BC16F-5BEA-4204-8540-1C8E8A5CC041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04438BB3-5000-46B2-B33B-32E8425EAFB8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12923,17 +12923,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E429E00E-CE37-4A01-81BB-E69C84F95000}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9E2A9D6-25FE-4F75-90F6-028EBA4DDF78}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FFB169B-6F63-4DEC-97F8-69773D074A27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95B0CCA1-9FFC-430D-896A-2C1442A22868}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B4318A2-7ED4-43F9-B54B-1F10FC6F48E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29CDBE4E-AF0A-4E72-ADEA-FD0E9E6466F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9385F2D-60E4-4E48-B41C-2225EF99A5E3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FA0F002-2E95-4352-9D57-F97FB194C246}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0E4687FE-9A01-46AD-B369-4FB8DD7A8148}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{47FAFC86-5890-484C-B71F-85E592F843C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B49D2946-333C-404A-9104-4D062C5C15A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0471933-55B4-4A6A-B920-F6FD45269B55}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6941A8BA-7E14-4AEA-9FA3-C816A51893F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1FD3BCEB-0FEE-465D-851B-B3E412C901BD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03B705F5-2E60-4407-A5BF-FB94411D765F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF75422E-086D-441C-B80A-649DD238A0A1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C87BA4AE-598B-4918-B96C-5F31EA2509C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3059E880-137C-406E-869A-D953D5074DBE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C75D6E79-0AA5-4F8A-A7F3-9417A4615FF2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B960DF77-23AC-49F1-BEC0-92F24312FB4F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1603DA9A-E798-43A2-B9B7-B66283410099}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{115F96F5-0888-42B8-8F1F-A2698C50788E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12946,7 +12946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1BD0C9-287C-448B-A2E8-4E93D7D7141D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CAAE27-2B98-4C10-B7FF-42312BEB255E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14213,17 +14213,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6E75EFC-06E4-403B-88D7-07DF008EEF75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77038528-5D82-441F-A760-26DAE1A4806C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{397294DA-492F-4950-A9B2-7AE7944256FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{809C57DB-3EC0-47CE-BA54-96B7FFD92464}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A2BE49F-6F0C-4EF2-9A6C-92AA7D550172}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2978C884-AE93-4668-8071-0702ED101DC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D61917EA-0C03-4072-9B9B-A48DEFB13333}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{355B7645-F91B-47DF-8F46-57D2F6E11EB2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D30FB129-1867-4430-B272-09AF029CC778}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F9A6C6C8-2A4C-4AFF-A8E2-12C8F1783974}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3286814-4441-4095-9152-CCF4D3217A89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2202A8B-C2DB-4D71-8188-A6E268AE6E87}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEA69C46-984D-42CC-86B8-909DB3D60C34}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8FD7C01-178A-4286-95BE-ED96965D006E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A7272A85-9943-409D-9447-A5B27222980E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63A5B2AA-E121-4205-A108-C3D6BAF066D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{454F3771-F232-49DB-89B9-49FD976A6B7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BD8B9C6-F548-4CF9-A824-E3E4252B5F7C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{420CC5F5-1957-4543-A97E-EE57717B235F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3C83B4E9-6940-4EF7-9493-87D65B23D028}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CEF1A875-0368-4A7B-BB53-0CE5E634B175}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1EE06BD-00A8-402D-9EF9-C004B816945B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14236,7 +14236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A02C3-6003-41E9-BEF7-5A05E825B465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303EADB9-744F-4DE6-B805-DB6AC88D19BE}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15496,17 +15496,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9DAF83C-2888-4047-83BB-500826532546}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8D5D026-C101-4190-B433-7546A25B0988}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C83A000-CCB3-4DB6-9109-BBFF53509BCD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{501F93FC-0B7F-4872-BFA5-B6AE2B81C679}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE26BE20-F95D-4A3C-9A8F-6928BBC39FE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0435730B-B994-49AA-B1D4-0000F36B846E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64E11F4B-62B7-46E4-A5D5-375048710460}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB37EDD7-26DC-4D4B-8DAC-A45B2FAFC47D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0EABFA26-E86F-4F6B-8F7E-1E3599F2BD49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{698244EE-F9EA-406C-A07B-9034F6C5B051}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A357365-6C9B-4A08-B3F0-C3C2E869A9AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00B8A18A-7EEA-4DD3-A1A2-6918889BB249}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA0A93A6-BCE9-4270-9102-0C75745C61A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B7113F80-40B2-4D2E-B903-D49504E6649F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1296A53-D9A4-4DD3-A02E-8A62A61B20BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1252506B-96C0-4C71-827E-3BCAB2AD0D85}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8823A98B-7A41-4C6E-9C73-5CB95DACE9C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFBA7DE3-67E0-4831-840C-E21F0CFAB616}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBDBB1B7-FD16-442E-9338-7EA071D892F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7008638B-522D-4D04-A805-6AB98A347802}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C438EDF6-1500-4D44-A75B-3CF33C0F79A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08DFCB55-164E-4C41-85C8-DDA8B188DB0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15519,7 +15519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED7AFF-0BDF-4278-B577-0CE21FAC2564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E70DF-45EF-430E-9797-671524B8AEF3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16779,17 +16779,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91860FF6-1A63-4272-9A1E-62B7397F621D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42C98EEB-91F4-448C-A834-4F2CC7C98E78}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25053BBE-5FF7-443D-905E-FD6641BBE12F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B6C3B00-A2C3-4E09-886C-80339B55743E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB3093F7-563B-4ADC-A89E-64CA27E18057}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0BD257A-2F99-4A40-98F4-D8B83FDC9396}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A87E8FA-4657-491A-9BB0-AAB5EF174D93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F7B1612-E0DE-4510-ACF9-88410F1DBE8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F51000BE-4FEF-43B8-B53E-949259D478F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{124EBA8C-7620-40F9-9D24-8479B52C913C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE7820CF-1CCE-42BE-BEA7-A1DCC811821C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BD40402-844C-4856-AC38-6D47E1306767}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4340AA73-300B-4B84-99AE-0EA17EC543A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA948BB1-85BF-4C8B-9B82-B3BD70712964}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED6906CD-E101-410E-900E-04D538E372DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{051E848D-4576-4BE1-8B3C-59F8A5C6DC4C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{636E0771-96DC-4A71-943C-319FA9511B9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89951F83-7FD8-45A8-9E74-05A85EFADBE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36039E88-C214-4C30-95E2-2A5B0E1510BA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB637B3B-8E96-4517-AB37-74937F5374AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{79626B7A-8E7C-4F3D-8030-AA9E36FDC353}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3CB78E9-F866-46E2-B71F-CE387D3578C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
